--- a/PaHaW.xlsx
+++ b/PaHaW.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>13</v>
@@ -812,7 +812,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
